--- a/graph_generation/results/hermes_llama2/level_7/k_3.xlsx
+++ b/graph_generation/results/hermes_llama2/level_7/k_3.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="32">
   <si>
     <t>prompt</t>
   </si>
@@ -28,154 +28,6 @@
   </si>
   <si>
     <t>evaluator_response</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Given is the adjacency matrix for a weighted directed graph containing 16 nodes labelled A to P. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
-Consider some examples
-Example 1: What is the least cost path from node A to node P? Return the sequence of nodes in response.
-   A B C D E F G H I J K L M N O P
- A 0 2 0 0 3 0 0 0 0 0 0 0 0 0 0 0
- B 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0
- C 0 0 0 2 0 0 3 0 0 0 0 0 0 0 0 0
- D 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0
- E 0 0 0 0 0 1 0 0 4 0 0 0 0 0 0 0
- F 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0
- G 0 0 0 0 0 0 0 3 0 0 4 0 0 0 0 0
- H 0 0 0 0 0 0 3 0 0 0 0 3 0 0 0 0
- I 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0
- J 0 0 0 0 0 4 0 0 4 0 0 0 0 0 0 0
- K 0 0 0 0 0 0 0 0 0 3 0 0 0 0 2 0
- L 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0 2
- M 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0
- N 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0
- O 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4
- P 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
-Solution: A -&gt; B -&gt; C -&gt; D -&gt; H -&gt; L -&gt; P
-Example 2: What is the least cost path from node A to node P? Return the sequence of nodes in response.
-   A B C D E F G H I J K L M N O P
- A 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- B 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0
- C 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- D 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0
- E 5 0 0 0 0 0 0 0 3 0 0 0 0 0 0 0
- F 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0
- G 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0
- H 0 0 0 3 0 0 3 0 0 0 0 0 0 0 0 0
- I 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0
- J 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0
- K 0 0 0 0 0 0 1 0 0 0 0 4 0 0 0 0
- L 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5
- M 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0
- N 0 0 0 0 0 0 0 0 0 4 0 0 0 0 1 0
- O 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0
- P 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
-Solution: A -&gt; B -&gt; F -&gt; J -&gt; K -&gt; L -&gt; P
-Example 3: What is the least cost path from node A to node I? Return the sequence of nodes in response.
-   A B C D E F G H I
- A 0 1 0 1 0 0 0 0 0
- B 0 0 5 0 0 0 0 0 0
- C 0 0 0 0 0 1 0 0 0
- D 0 0 0 0 0 0 1 0 0
- E 0 5 0 2 0 0 0 0 0
- F 0 0 0 0 1 0 0 0 1
- G 0 0 0 0 0 0 0 2 0
- H 0 0 0 0 4 0 0 0 5
- I 0 0 0 0 0 0 0 0 0
-Solution: A -&gt; B -&gt; C -&gt; F -&gt; I
- Given these examples, answer the following quesiton.
-What is the least cost path from node A to node P? Return the sequence of nodes in response.
-   A B C D E F G H I J K L M N O P
- A 0 3 0 0 4 0 0 0 0 0 0 0 0 0 0 0
- B 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0
- C 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0
- D 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0
- E 0 0 0 0 0 5 0 0 5 0 0 0 0 0 0 0
- F 0 4 0 0 0 0 0 0 0 4 0 0 0 0 0 0
- G 0 0 0 0 0 4 0 0 0 0 4 0 0 0 0 0
- H 0 0 0 0 0 0 3 0 0 0 0 4 0 0 0 0
- I 0 0 0 0 0 0 0 0 0 4 0 0 2 0 0 0
- J 0 0 0 0 0 3 0 0 0 0 2 0 0 5 0 0
- K 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0
- L 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1
- M 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0
- N 0 0 0 0 0 0 0 0 0 1 0 0 0 0 5 0
- O 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 1
- P 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
-    </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Given is the adjacency matrix for a weighted directed graph containing 16 nodes labelled A to P. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
-Consider some examples
-Example 1: What is the least cost path from node A to node P? Return the sequence of nodes in response.
-   A B C D E F G H I J K L M N O P
- A 0 2 0 0 3 0 0 0 0 0 0 0 0 0 0 0
- B 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0
- C 0 0 0 2 0 0 3 0 0 0 0 0 0 0 0 0
- D 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0
- E 0 0 0 0 0 1 0 0 4 0 0 0 0 0 0 0
- F 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0
- G 0 0 0 0 0 0 0 3 0 0 4 0 0 0 0 0
- H 0 0 0 0 0 0 3 0 0 0 0 3 0 0 0 0
- I 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0
- J 0 0 0 0 0 4 0 0 4 0 0 0 0 0 0 0
- K 0 0 0 0 0 0 0 0 0 3 0 0 0 0 2 0
- L 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0 2
- M 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0
- N 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0
- O 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4
- P 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
-Solution: A -&gt; B -&gt; C -&gt; D -&gt; H -&gt; L -&gt; P
-Example 2: What is the least cost path from node A to node P? Return the sequence of nodes in response.
-   A B C D E F G H I J K L M N O P
- A 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- B 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0
- C 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- D 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0
- E 5 0 0 0 0 0 0 0 3 0 0 0 0 0 0 0
- F 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0
- G 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0
- H 0 0 0 3 0 0 3 0 0 0 0 0 0 0 0 0
- I 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0
- J 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0
- K 0 0 0 0 0 0 1 0 0 0 0 4 0 0 0 0
- L 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5
- M 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0
- N 0 0 0 0 0 0 0 0 0 4 0 0 0 0 1 0
- O 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0
- P 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
-Solution: A -&gt; B -&gt; F -&gt; J -&gt; K -&gt; L -&gt; P
-Example 3: What is the least cost path from node A to node I? Return the sequence of nodes in response.
-   A B C D E F G H I
- A 0 1 0 1 0 0 0 0 0
- B 0 0 5 0 0 0 0 0 0
- C 0 0 0 0 0 1 0 0 0
- D 0 0 0 0 0 0 1 0 0
- E 0 5 0 2 0 0 0 0 0
- F 0 0 0 0 1 0 0 0 1
- G 0 0 0 0 0 0 0 2 0
- H 0 0 0 0 4 0 0 0 5
- I 0 0 0 0 0 0 0 0 0
-Solution: A -&gt; B -&gt; C -&gt; F -&gt; I
- Given these examples, answer the following quesiton.
-What is the least cost path from node A to node P? Return the sequence of nodes in response.
-   A B C D E F G H I J K L M N O P
- A 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- B 0 0 1 0 0 3 0 0 0 0 0 0 0 0 0 0
- C 0 0 0 2 0 0 4 0 0 0 0 0 0 0 0 0
- D 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0
- E 5 0 0 0 0 0 0 0 3 0 0 0 0 0 0 0
- F 0 0 0 0 1 0 3 0 0 0 0 0 0 0 0 0
- G 0 0 0 0 0 0 0 3 0 0 0 0 0 0 0 0
- H 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0
- I 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0
- J 0 0 0 0 0 4 0 0 5 0 0 0 0 0 0 0
- K 0 0 0 0 0 0 0 0 0 1 0 0 0 0 2 0
- L 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0
- M 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0
- N 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0
- O 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2
- P 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0
-    </t>
   </si>
   <si>
     <t xml:space="preserve"> Given is the adjacency matrix for a weighted directed graph containing 15 nodes labelled A to O. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
@@ -233,21 +85,21 @@
  Given these examples, answer the following quesiton.
 What is the least cost path from node A to node O? Return the sequence of nodes in response.
    A B C D E F G H I J K L M N O
- A 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0
- B 0 0 2 0 3 0 0 0 0 0 0 0 0 0 0
+ A 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0
+ B 5 0 4 0 0 0 0 0 0 0 0 0 0 0 0
  C 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0
- D 5 0 0 0 0 0 0 2 0 0 0 0 0 0 0
- E 0 0 0 3 0 3 0 0 4 0 0 0 0 0 0
- F 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0
- G 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0
- H 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0
- I 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0
- J 0 0 0 0 0 4 0 0 0 0 0 0 0 1 0
- K 0 0 0 0 0 0 0 0 0 1 0 0 0 0 2
- L 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0
- M 0 0 0 0 0 0 0 0 5 0 0 0 0 0 0
- N 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1
- O 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ D 0 0 0 0 2 0 0 2 0 0 0 0 0 0 0
+ E 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0
+ F 0 0 0 0 4 0 4 0 0 4 0 0 0 0 0
+ G 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ H 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ I 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ J 0 0 0 0 0 0 0 0 2 0 0 0 0 2 0
+ K 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0
+ L 0 0 0 0 0 0 0 3 0 0 0 0 5 0 0
+ M 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0
+ N 0 0 0 0 0 0 0 0 0 0 0 0 5 0 2
+ O 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0
     </t>
   </si>
   <si>
@@ -306,21 +158,21 @@
  Given these examples, answer the following quesiton.
 What is the least cost path from node A to node P? Return the sequence of nodes in response.
    A B C D E F G H I J K L M N O P
- A 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- B 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0
- C 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0
+ A 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0
+ B 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0
+ C 0 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0
  D 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0
- E 5 0 0 0 0 0 0 0 4 0 0 0 0 0 0 0
- F 0 3 0 0 4 0 0 0 0 1 0 0 0 0 0 0
- G 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0
- H 0 0 0 1 0 0 1 0 0 0 0 4 0 0 0 0
- I 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0
- J 0 0 0 0 0 0 0 0 1 0 0 0 0 5 0 0
- K 0 0 0 0 0 0 4 0 0 2 0 1 0 0 0 0
+ E 0 0 0 0 0 3 0 0 3 0 0 0 0 0 0 0
+ F 0 5 0 0 3 0 0 0 0 0 0 0 0 0 0 0
+ G 0 0 0 0 0 3 0 0 0 0 5 0 0 0 0 0
+ H 0 0 0 1 0 0 0 0 0 0 0 3 0 0 0 0
+ I 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0
+ J 0 0 0 0 0 2 0 0 0 0 5 0 0 2 0 0
+ K 0 0 0 0 0 0 0 0 0 1 0 1 0 0 4 0
  L 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1
- M 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0
- N 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0
- O 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 3
+ M 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0
+ N 0 0 0 0 0 0 0 0 0 1 0 0 0 0 4 0
+ O 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3
  P 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
     </t>
   </si>
@@ -380,95 +232,22 @@
  Given these examples, answer the following quesiton.
 What is the least cost path from node A to node P? Return the sequence of nodes in response.
    A B C D E F G H I J K L M N O P
- A 0 1 0 0 4 0 0 0 0 0 0 0 0 0 0 0
- B 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0
- C 0 0 0 2 0 0 5 0 0 0 0 0 0 0 0 0
- D 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0
- E 0 0 0 0 0 4 0 0 5 0 0 0 0 0 0 0
- F 0 3 0 0 0 0 5 0 0 0 0 0 0 0 0 0
- G 0 0 0 0 0 0 0 5 0 0 3 0 0 0 0 0
- H 0 0 0 0 0 0 1 0 0 0 0 2 0 0 0 0
- I 0 0 0 0 0 0 0 0 0 2 0 0 5 0 0 0
- J 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0
- K 0 0 0 0 0 0 0 0 0 2 0 2 0 0 3 0
- L 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0 3
- M 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0
- N 0 0 0 0 0 0 0 0 0 5 0 0 0 0 5 0
- O 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3
- P 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
-    </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Given is the adjacency matrix for a weighted directed graph containing 15 nodes labelled A to O. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
-Consider some examples
-Example 1: What is the least cost path from node A to node P? Return the sequence of nodes in response.
-   A B C D E F G H I J K L M N O P
- A 0 2 0 0 3 0 0 0 0 0 0 0 0 0 0 0
- B 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0
- C 0 0 0 2 0 0 3 0 0 0 0 0 0 0 0 0
- D 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0
- E 0 0 0 0 0 1 0 0 4 0 0 0 0 0 0 0
- F 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0
- G 0 0 0 0 0 0 0 3 0 0 4 0 0 0 0 0
- H 0 0 0 0 0 0 3 0 0 0 0 3 0 0 0 0
+ A 0 4 0 0 2 0 0 0 0 0 0 0 0 0 0 0
+ B 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0
+ C 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0
+ D 0 0 1 0 0 0 0 2 0 0 0 0 0 0 0 0
+ E 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0
+ F 0 0 0 0 2 0 3 0 0 0 0 0 0 0 0 0
+ G 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0
+ H 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0
  I 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0
- J 0 0 0 0 0 4 0 0 4 0 0 0 0 0 0 0
- K 0 0 0 0 0 0 0 0 0 3 0 0 0 0 2 0
- L 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0 2
- M 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0
- N 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0
- O 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4
- P 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
-Solution: A -&gt; B -&gt; C -&gt; D -&gt; H -&gt; L -&gt; P
-Example 2: What is the least cost path from node A to node P? Return the sequence of nodes in response.
-   A B C D E F G H I J K L M N O P
- A 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- B 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0
- C 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- D 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0
- E 5 0 0 0 0 0 0 0 3 0 0 0 0 0 0 0
- F 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0
- G 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0
- H 0 0 0 3 0 0 3 0 0 0 0 0 0 0 0 0
- I 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0
- J 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0
- K 0 0 0 0 0 0 1 0 0 0 0 4 0 0 0 0
- L 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5
- M 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0
- N 0 0 0 0 0 0 0 0 0 4 0 0 0 0 1 0
- O 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0
- P 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
-Solution: A -&gt; B -&gt; F -&gt; J -&gt; K -&gt; L -&gt; P
-Example 3: What is the least cost path from node A to node I? Return the sequence of nodes in response.
-   A B C D E F G H I
- A 0 1 0 1 0 0 0 0 0
- B 0 0 5 0 0 0 0 0 0
- C 0 0 0 0 0 1 0 0 0
- D 0 0 0 0 0 0 1 0 0
- E 0 5 0 2 0 0 0 0 0
- F 0 0 0 0 1 0 0 0 1
- G 0 0 0 0 0 0 0 2 0
- H 0 0 0 0 4 0 0 0 5
- I 0 0 0 0 0 0 0 0 0
-Solution: A -&gt; B -&gt; C -&gt; F -&gt; I
- Given these examples, answer the following quesiton.
-What is the least cost path from node A to node O? Return the sequence of nodes in response.
-   A B C D E F G H I J K L M N O
- A 0 4 0 5 0 0 0 0 0 0 0 0 0 0 0
- B 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0
- C 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0
- D 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0
- E 0 2 0 4 0 2 0 0 0 0 0 0 0 0 0
- F 0 0 0 0 0 0 1 0 0 2 0 0 0 0 0
- G 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0
- H 0 0 0 0 0 0 0 0 3 0 0 3 0 0 0
- I 0 0 0 0 4 0 0 0 0 0 0 0 1 0 0
- J 0 0 0 0 0 0 0 0 5 0 0 0 0 4 0
- K 0 0 0 0 0 0 0 0 0 3 0 0 0 0 3
- L 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- M 0 0 0 0 0 0 0 0 0 0 0 4 0 3 0
- N 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4
- O 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ J 0 0 0 0 0 0 0 0 3 0 5 0 0 0 0 0
+ K 0 0 0 0 0 0 1 0 0 0 0 3 0 0 0 0
+ L 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3
+ M 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0
+ N 0 0 0 0 0 0 0 0 0 1 0 0 0 0 5 0
+ O 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0
+ P 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0
     </t>
   </si>
   <si>
@@ -528,20 +307,93 @@
 What is the least cost path from node A to node O? Return the sequence of nodes in response.
    A B C D E F G H I J K L M N O
  A 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0
- B 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0
- C 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0
- D 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0
- E 0 0 0 0 0 2 0 0 5 0 0 0 0 0 0
- F 0 0 4 0 0 0 3 0 0 0 0 0 0 0 0
+ B 0 0 4 0 2 0 0 0 0 0 0 0 0 0 0
+ C 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0
+ D 1 0 0 0 0 0 0 1 0 0 0 0 0 0 0
+ E 0 0 0 2 0 0 0 0 2 0 0 0 0 0 0
+ F 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0
+ G 0 0 0 0 0 3 0 0 0 0 1 0 0 0 0
+ H 0 0 0 0 0 0 0 0 2 0 0 4 0 0 0
+ I 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0
+ J 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0
+ K 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ L 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0
+ M 0 0 0 0 0 0 0 0 2 0 0 0 0 5 0
+ N 0 0 0 0 0 0 0 0 0 4 0 0 0 0 2
+ O 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0
+    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Given is the adjacency matrix for a weighted directed graph containing 15 nodes labelled A to O. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
+Consider some examples
+Example 1: What is the least cost path from node A to node P? Return the sequence of nodes in response.
+   A B C D E F G H I J K L M N O P
+ A 0 2 0 0 3 0 0 0 0 0 0 0 0 0 0 0
+ B 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0
+ C 0 0 0 2 0 0 3 0 0 0 0 0 0 0 0 0
+ D 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0
+ E 0 0 0 0 0 1 0 0 4 0 0 0 0 0 0 0
+ F 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0
+ G 0 0 0 0 0 0 0 3 0 0 4 0 0 0 0 0
+ H 0 0 0 0 0 0 3 0 0 0 0 3 0 0 0 0
+ I 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0
+ J 0 0 0 0 0 4 0 0 4 0 0 0 0 0 0 0
+ K 0 0 0 0 0 0 0 0 0 3 0 0 0 0 2 0
+ L 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0 2
+ M 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0
+ N 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0
+ O 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4
+ P 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+Solution: A -&gt; B -&gt; C -&gt; D -&gt; H -&gt; L -&gt; P
+Example 2: What is the least cost path from node A to node P? Return the sequence of nodes in response.
+   A B C D E F G H I J K L M N O P
+ A 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ B 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0
+ C 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ D 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0
+ E 5 0 0 0 0 0 0 0 3 0 0 0 0 0 0 0
+ F 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0
+ G 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0
+ H 0 0 0 3 0 0 3 0 0 0 0 0 0 0 0 0
+ I 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0
+ J 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0
+ K 0 0 0 0 0 0 1 0 0 0 0 4 0 0 0 0
+ L 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5
+ M 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0
+ N 0 0 0 0 0 0 0 0 0 4 0 0 0 0 1 0
+ O 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0
+ P 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+Solution: A -&gt; B -&gt; F -&gt; J -&gt; K -&gt; L -&gt; P
+Example 3: What is the least cost path from node A to node I? Return the sequence of nodes in response.
+   A B C D E F G H I
+ A 0 1 0 1 0 0 0 0 0
+ B 0 0 5 0 0 0 0 0 0
+ C 0 0 0 0 0 1 0 0 0
+ D 0 0 0 0 0 0 1 0 0
+ E 0 5 0 2 0 0 0 0 0
+ F 0 0 0 0 1 0 0 0 1
+ G 0 0 0 0 0 0 0 2 0
+ H 0 0 0 0 4 0 0 0 5
+ I 0 0 0 0 0 0 0 0 0
+Solution: A -&gt; B -&gt; C -&gt; F -&gt; I
+ Given these examples, answer the following quesiton.
+What is the least cost path from node A to node O? Return the sequence of nodes in response.
+   A B C D E F G H I J K L M N O
+ A 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0
+ B 0 0 2 0 3 0 0 0 0 0 0 0 0 0 0
+ C 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0
+ D 0 0 0 0 0 0 0 3 0 0 0 0 0 0 0
+ E 0 0 0 4 0 2 0 0 0 0 0 0 0 0 0
+ F 0 0 0 0 0 0 2 0 0 4 0 0 0 0 0
  G 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0
- H 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0
- I 0 0 0 0 0 0 0 3 0 2 0 0 0 0 0
- J 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0
- K 0 0 0 0 0 0 0 0 0 3 0 0 0 0 5
+ H 0 0 0 0 0 0 0 0 5 0 0 3 0 0 0
+ I 0 0 0 0 3 0 0 0 0 2 0 0 0 0 0
+ J 0 0 0 0 0 2 0 0 0 0 0 0 0 1 0
+ K 0 0 0 0 0 0 0 0 0 2 0 0 0 0 2
  L 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0
- M 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0
- N 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0
- O 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0
+ M 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0
+ N 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2
+ O 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
     </t>
   </si>
   <si>
@@ -600,94 +452,22 @@
  Given these examples, answer the following quesiton.
 What is the least cost path from node A to node P? Return the sequence of nodes in response.
    A B C D E F G H I J K L M N O P
- A 0 3 0 0 3 0 0 0 0 0 0 0 0 0 0 0
- B 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0
- C 0 0 0 2 0 0 3 0 0 0 0 0 0 0 0 0
- D 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0
- E 0 0 0 0 0 0 0 0 4 0 0 0 0 0 0 0
- F 0 2 0 0 0 0 1 0 0 0 0 0 0 0 0 0
- G 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0
- H 0 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0
- I 0 0 0 0 0 0 0 0 0 3 0 0 2 0 0 0
- J 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0
- K 0 0 0 0 0 0 0 0 0 2 0 5 0 0 5 0
- L 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 5
- M 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0
- N 0 0 0 0 0 0 0 0 0 5 0 0 0 0 3 0
+ A 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ B 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0
+ C 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0
+ D 0 0 0 0 0 0 0 3 0 0 0 0 0 0 0 0
+ E 4 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0
+ F 0 0 0 0 2 0 4 0 0 0 0 0 0 0 0 0
+ G 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0
+ H 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0
+ I 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0
+ J 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0
+ K 0 0 0 0 0 0 2 0 0 3 0 0 0 0 5 0
+ L 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0
+ M 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0
+ N 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0
  O 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1
- P 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
-    </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Given is the adjacency matrix for a weighted directed graph containing 14 nodes labelled A to N. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
-Consider some examples
-Example 1: What is the least cost path from node A to node P? Return the sequence of nodes in response.
-   A B C D E F G H I J K L M N O P
- A 0 2 0 0 3 0 0 0 0 0 0 0 0 0 0 0
- B 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0
- C 0 0 0 2 0 0 3 0 0 0 0 0 0 0 0 0
- D 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0
- E 0 0 0 0 0 1 0 0 4 0 0 0 0 0 0 0
- F 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0
- G 0 0 0 0 0 0 0 3 0 0 4 0 0 0 0 0
- H 0 0 0 0 0 0 3 0 0 0 0 3 0 0 0 0
- I 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0
- J 0 0 0 0 0 4 0 0 4 0 0 0 0 0 0 0
- K 0 0 0 0 0 0 0 0 0 3 0 0 0 0 2 0
- L 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0 2
- M 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0
- N 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0
- O 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4
- P 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
-Solution: A -&gt; B -&gt; C -&gt; D -&gt; H -&gt; L -&gt; P
-Example 2: What is the least cost path from node A to node P? Return the sequence of nodes in response.
-   A B C D E F G H I J K L M N O P
- A 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- B 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0
- C 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- D 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0
- E 5 0 0 0 0 0 0 0 3 0 0 0 0 0 0 0
- F 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0
- G 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0
- H 0 0 0 3 0 0 3 0 0 0 0 0 0 0 0 0
- I 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0
- J 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0
- K 0 0 0 0 0 0 1 0 0 0 0 4 0 0 0 0
- L 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5
- M 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0
- N 0 0 0 0 0 0 0 0 0 4 0 0 0 0 1 0
- O 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0
- P 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
-Solution: A -&gt; B -&gt; F -&gt; J -&gt; K -&gt; L -&gt; P
-Example 3: What is the least cost path from node A to node I? Return the sequence of nodes in response.
-   A B C D E F G H I
- A 0 1 0 1 0 0 0 0 0
- B 0 0 5 0 0 0 0 0 0
- C 0 0 0 0 0 1 0 0 0
- D 0 0 0 0 0 0 1 0 0
- E 0 5 0 2 0 0 0 0 0
- F 0 0 0 0 1 0 0 0 1
- G 0 0 0 0 0 0 0 2 0
- H 0 0 0 0 4 0 0 0 5
- I 0 0 0 0 0 0 0 0 0
-Solution: A -&gt; B -&gt; C -&gt; F -&gt; I
- Given these examples, answer the following quesiton.
-What is the least cost path from node A to node N? Return the sequence of nodes in response.
-   A B C D E F G H I J K L M N
- A 0 2 5 0 0 0 0 0 0 0 0 0 0 0
- B 0 0 0 4 0 0 0 0 0 0 0 0 0 0
- C 0 0 0 5 0 0 0 0 0 0 0 0 0 0
- D 0 0 0 0 3 0 0 2 0 0 0 0 0 0
- E 0 0 0 0 0 5 0 0 2 0 0 0 0 0
- F 0 0 0 0 0 0 0 0 0 4 0 0 0 0
- G 0 0 0 0 0 0 0 0 0 0 3 0 0 0
- H 0 0 0 0 0 0 4 0 2 0 0 0 0 0
- I 0 0 0 0 1 0 0 3 0 0 0 0 3 0
- J 0 0 0 0 0 0 0 0 2 0 0 0 0 3
- K 0 0 0 0 0 0 0 0 0 0 0 1 0 0
- L 0 0 0 0 0 0 0 0 0 0 0 0 4 0
- M 0 0 0 0 0 0 0 0 0 0 0 0 0 3
- N 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ P 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0
     </t>
   </si>
   <si>
@@ -746,60 +526,290 @@
  Given these examples, answer the following quesiton.
 What is the least cost path from node A to node P? Return the sequence of nodes in response.
    A B C D E F G H I J K L M N O P
- A 0 5 0 0 5 0 0 0 0 0 0 0 0 0 0 0
- B 0 0 2 0 0 3 0 0 0 0 0 0 0 0 0 0
- C 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0
- D 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0
- E 0 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0
- F 0 0 0 0 3 0 0 0 0 4 0 0 0 0 0 0
- G 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0
- H 0 0 0 2 0 0 0 0 0 0 0 2 0 0 0 0
+ A 0 3 0 0 5 0 0 0 0 0 0 0 0 0 0 0
+ B 0 0 5 0 0 3 0 0 0 0 0 0 0 0 0 0
+ C 0 0 0 1 0 0 4 0 0 0 0 0 0 0 0 0
+ D 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0
+ E 0 0 0 0 0 4 0 0 2 0 0 0 0 0 0 0
+ F 0 2 0 0 3 0 3 0 0 0 0 0 0 0 0 0
+ G 0 0 2 0 0 0 0 0 0 0 1 0 0 0 0 0
+ H 0 0 0 0 0 0 3 0 0 0 0 4 0 0 0 0
+ I 0 0 0 0 0 0 0 0 0 1 0 0 5 0 0 0
+ J 0 0 0 0 0 2 0 0 0 0 0 0 0 5 0 0
+ K 0 0 0 0 0 0 1 0 0 3 0 0 0 0 0 0
+ L 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0 3
+ M 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0
+ N 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0
+ O 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0 2
+ P 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Given is the adjacency matrix for a weighted directed graph containing 16 nodes labelled A to P. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
+Consider some examples
+Example 1: What is the least cost path from node A to node P? Return the sequence of nodes in response.
+   A B C D E F G H I J K L M N O P
+ A 0 2 0 0 3 0 0 0 0 0 0 0 0 0 0 0
+ B 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0
+ C 0 0 0 2 0 0 3 0 0 0 0 0 0 0 0 0
+ D 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0
+ E 0 0 0 0 0 1 0 0 4 0 0 0 0 0 0 0
+ F 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0
+ G 0 0 0 0 0 0 0 3 0 0 4 0 0 0 0 0
+ H 0 0 0 0 0 0 3 0 0 0 0 3 0 0 0 0
  I 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0
- J 0 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0
- K 0 0 0 0 0 0 5 0 0 2 0 0 0 0 0 0
- L 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0
- M 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0
- N 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0
- O 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0 1
- P 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0
+ J 0 0 0 0 0 4 0 0 4 0 0 0 0 0 0 0
+ K 0 0 0 0 0 0 0 0 0 3 0 0 0 0 2 0
+ L 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0 2
+ M 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0
+ N 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0
+ O 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4
+ P 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+Solution: A -&gt; B -&gt; C -&gt; D -&gt; H -&gt; L -&gt; P
+Example 2: What is the least cost path from node A to node P? Return the sequence of nodes in response.
+   A B C D E F G H I J K L M N O P
+ A 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ B 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0
+ C 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ D 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0
+ E 5 0 0 0 0 0 0 0 3 0 0 0 0 0 0 0
+ F 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0
+ G 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0
+ H 0 0 0 3 0 0 3 0 0 0 0 0 0 0 0 0
+ I 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0
+ J 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0
+ K 0 0 0 0 0 0 1 0 0 0 0 4 0 0 0 0
+ L 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5
+ M 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0
+ N 0 0 0 0 0 0 0 0 0 4 0 0 0 0 1 0
+ O 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0
+ P 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+Solution: A -&gt; B -&gt; F -&gt; J -&gt; K -&gt; L -&gt; P
+Example 3: What is the least cost path from node A to node I? Return the sequence of nodes in response.
+   A B C D E F G H I
+ A 0 1 0 1 0 0 0 0 0
+ B 0 0 5 0 0 0 0 0 0
+ C 0 0 0 0 0 1 0 0 0
+ D 0 0 0 0 0 0 1 0 0
+ E 0 5 0 2 0 0 0 0 0
+ F 0 0 0 0 1 0 0 0 1
+ G 0 0 0 0 0 0 0 2 0
+ H 0 0 0 0 4 0 0 0 5
+ I 0 0 0 0 0 0 0 0 0
+Solution: A -&gt; B -&gt; C -&gt; F -&gt; I
+ Given these examples, answer the following quesiton.
+What is the least cost path from node A to node P? Return the sequence of nodes in response.
+   A B C D E F G H I J K L M N O P
+ A 0 2 0 0 5 0 0 0 0 0 0 0 0 0 0 0
+ B 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0
+ C 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0
+ D 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0
+ E 0 0 0 0 0 2 0 0 1 0 0 0 0 0 0 0
+ F 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0
+ G 0 0 5 0 0 0 0 4 0 0 0 0 0 0 0 0
+ H 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0
+ I 0 0 0 0 0 0 0 0 0 2 0 0 1 0 0 0
+ J 0 0 0 0 0 5 0 0 0 0 3 0 0 0 0 0
+ K 0 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0
+ L 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0 4
+ M 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0
+ N 0 0 0 0 0 0 0 0 0 5 0 0 0 0 1 0
+ O 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0 4
+ P 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
     </t>
   </si>
   <si>
-    <t>A -&gt; B -&gt; C -&gt; D -&gt; H -&gt; L -&gt; P</t>
-  </si>
-  <si>
-    <t>A -&gt; B -&gt; F -&gt; E -&gt; I -&gt; M -&gt; N -&gt; O -&gt; P</t>
-  </si>
-  <si>
-    <t>A -&gt; B -&gt; E -&gt; I -&gt; J -&gt; N -&gt; O</t>
-  </si>
-  <si>
-    <t>A -&gt; B -&gt; C -&gt; G -&gt; F -&gt; J -&gt; N -&gt; O -&gt; P</t>
-  </si>
-  <si>
-    <t>A -&gt; B -&gt; C -&gt; F -&gt; G -&gt; K -&gt; O</t>
-  </si>
-  <si>
-    <t>A -&gt; B -&gt; E -&gt; F -&gt; G -&gt; K -&gt; O</t>
+    <t xml:space="preserve"> Given is the adjacency matrix for a weighted directed graph containing 16 nodes labelled A to P. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
+Consider some examples
+Example 1: What is the least cost path from node A to node P? Return the sequence of nodes in response.
+   A B C D E F G H I J K L M N O P
+ A 0 2 0 0 3 0 0 0 0 0 0 0 0 0 0 0
+ B 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0
+ C 0 0 0 2 0 0 3 0 0 0 0 0 0 0 0 0
+ D 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0
+ E 0 0 0 0 0 1 0 0 4 0 0 0 0 0 0 0
+ F 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0
+ G 0 0 0 0 0 0 0 3 0 0 4 0 0 0 0 0
+ H 0 0 0 0 0 0 3 0 0 0 0 3 0 0 0 0
+ I 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0
+ J 0 0 0 0 0 4 0 0 4 0 0 0 0 0 0 0
+ K 0 0 0 0 0 0 0 0 0 3 0 0 0 0 2 0
+ L 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0 2
+ M 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0
+ N 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0
+ O 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4
+ P 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+Solution: A -&gt; B -&gt; C -&gt; D -&gt; H -&gt; L -&gt; P
+Example 2: What is the least cost path from node A to node P? Return the sequence of nodes in response.
+   A B C D E F G H I J K L M N O P
+ A 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ B 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0
+ C 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ D 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0
+ E 5 0 0 0 0 0 0 0 3 0 0 0 0 0 0 0
+ F 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0
+ G 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0
+ H 0 0 0 3 0 0 3 0 0 0 0 0 0 0 0 0
+ I 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0
+ J 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0
+ K 0 0 0 0 0 0 1 0 0 0 0 4 0 0 0 0
+ L 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5
+ M 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0
+ N 0 0 0 0 0 0 0 0 0 4 0 0 0 0 1 0
+ O 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0
+ P 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+Solution: A -&gt; B -&gt; F -&gt; J -&gt; K -&gt; L -&gt; P
+Example 3: What is the least cost path from node A to node I? Return the sequence of nodes in response.
+   A B C D E F G H I
+ A 0 1 0 1 0 0 0 0 0
+ B 0 0 5 0 0 0 0 0 0
+ C 0 0 0 0 0 1 0 0 0
+ D 0 0 0 0 0 0 1 0 0
+ E 0 5 0 2 0 0 0 0 0
+ F 0 0 0 0 1 0 0 0 1
+ G 0 0 0 0 0 0 0 2 0
+ H 0 0 0 0 4 0 0 0 5
+ I 0 0 0 0 0 0 0 0 0
+Solution: A -&gt; B -&gt; C -&gt; F -&gt; I
+ Given these examples, answer the following quesiton.
+What is the least cost path from node A to node P? Return the sequence of nodes in response.
+   A B C D E F G H I J K L M N O P
+ A 0 2 0 0 1 0 0 0 0 0 0 0 0 0 0 0
+ B 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0
+ C 0 0 0 3 0 0 1 0 0 0 0 0 0 0 0 0
+ D 0 0 0 0 0 0 0 4 0 0 0 0 0 0 0 0
+ E 0 0 0 0 0 0 0 0 4 0 0 0 0 0 0 0
+ F 0 0 0 0 4 0 0 0 0 5 0 0 0 0 0 0
+ G 0 0 0 0 0 1 0 0 0 0 3 0 0 0 0 0
+ H 0 0 0 0 0 0 3 0 0 0 0 1 0 0 0 0
+ I 0 0 0 0 0 0 0 0 0 3 0 0 1 0 0 0
+ J 0 0 0 0 0 0 0 0 3 0 0 0 0 1 0 0
+ K 0 0 0 0 0 0 0 0 0 3 0 5 0 0 0 0
+ L 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 5
+ M 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0
+ N 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0
+ O 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0 3
+ P 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Given is the adjacency matrix for a weighted directed graph containing 16 nodes labelled A to P. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
+Consider some examples
+Example 1: What is the least cost path from node A to node P? Return the sequence of nodes in response.
+   A B C D E F G H I J K L M N O P
+ A 0 2 0 0 3 0 0 0 0 0 0 0 0 0 0 0
+ B 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0
+ C 0 0 0 2 0 0 3 0 0 0 0 0 0 0 0 0
+ D 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0
+ E 0 0 0 0 0 1 0 0 4 0 0 0 0 0 0 0
+ F 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0
+ G 0 0 0 0 0 0 0 3 0 0 4 0 0 0 0 0
+ H 0 0 0 0 0 0 3 0 0 0 0 3 0 0 0 0
+ I 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0
+ J 0 0 0 0 0 4 0 0 4 0 0 0 0 0 0 0
+ K 0 0 0 0 0 0 0 0 0 3 0 0 0 0 2 0
+ L 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0 2
+ M 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0
+ N 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0
+ O 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4
+ P 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+Solution: A -&gt; B -&gt; C -&gt; D -&gt; H -&gt; L -&gt; P
+Example 2: What is the least cost path from node A to node P? Return the sequence of nodes in response.
+   A B C D E F G H I J K L M N O P
+ A 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ B 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0
+ C 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ D 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0
+ E 5 0 0 0 0 0 0 0 3 0 0 0 0 0 0 0
+ F 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0
+ G 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0
+ H 0 0 0 3 0 0 3 0 0 0 0 0 0 0 0 0
+ I 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0
+ J 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0
+ K 0 0 0 0 0 0 1 0 0 0 0 4 0 0 0 0
+ L 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5
+ M 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0
+ N 0 0 0 0 0 0 0 0 0 4 0 0 0 0 1 0
+ O 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0
+ P 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+Solution: A -&gt; B -&gt; F -&gt; J -&gt; K -&gt; L -&gt; P
+Example 3: What is the least cost path from node A to node I? Return the sequence of nodes in response.
+   A B C D E F G H I
+ A 0 1 0 1 0 0 0 0 0
+ B 0 0 5 0 0 0 0 0 0
+ C 0 0 0 0 0 1 0 0 0
+ D 0 0 0 0 0 0 1 0 0
+ E 0 5 0 2 0 0 0 0 0
+ F 0 0 0 0 1 0 0 0 1
+ G 0 0 0 0 0 0 0 2 0
+ H 0 0 0 0 4 0 0 0 5
+ I 0 0 0 0 0 0 0 0 0
+Solution: A -&gt; B -&gt; C -&gt; F -&gt; I
+ Given these examples, answer the following quesiton.
+What is the least cost path from node A to node P? Return the sequence of nodes in response.
+   A B C D E F G H I J K L M N O P
+ A 0 4 0 0 2 0 0 0 0 0 0 0 0 0 0 0
+ B 0 0 5 0 0 2 0 0 0 0 0 0 0 0 0 0
+ C 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0
+ D 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0
+ E 0 0 0 0 0 0 0 0 3 0 0 0 0 0 0 0
+ F 0 0 0 0 4 0 0 0 0 2 0 0 0 0 0 0
+ G 0 0 0 0 0 3 0 4 0 0 0 0 0 0 0 0
+ H 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0
+ I 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0
+ J 0 0 0 0 0 0 0 0 4 0 5 0 0 0 0 0
+ K 0 0 0 0 0 0 2 0 0 0 0 0 0 0 5 0
+ L 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0
+ M 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0
+ N 0 0 0 0 0 0 0 0 0 1 0 0 0 0 2 0
+ O 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5
+ P 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+    </t>
+  </si>
+  <si>
+    <t>A -&gt; D -&gt; E -&gt; B -&gt; C -&gt; F -&gt; J -&gt; N -&gt; O</t>
   </si>
   <si>
     <t>A -&gt; E -&gt; I -&gt; M -&gt; N -&gt; O -&gt; P</t>
   </si>
   <si>
-    <t>A -&gt; B -&gt; D -&gt; H -&gt; I -&gt; M -&gt; N</t>
+    <t>A -&gt; B -&gt; F -&gt; G -&gt; H -&gt; L -&gt; P</t>
+  </si>
+  <si>
+    <t>A -&gt; B -&gt; E -&gt; D -&gt; H -&gt; L -&gt; M -&gt; N -&gt; O</t>
+  </si>
+  <si>
+    <t>A -&gt; D -&gt; H -&gt; I -&gt; J -&gt; N -&gt; O</t>
+  </si>
+  <si>
+    <t>A -&gt; B -&gt; C -&gt; D -&gt; H -&gt; L -&gt; K -&gt; O -&gt; P</t>
+  </si>
+  <si>
+    <t>A -&gt; E -&gt; I -&gt; J -&gt; N -&gt; O -&gt; P</t>
+  </si>
+  <si>
+    <t>The least cost path from node A to node O is A -&gt; B -&gt; F -&gt; J -&gt; K -&gt; L -&gt; M -&gt; N -&gt; O. The cost of this path is 5.</t>
   </si>
   <si>
     <t>To find the least cost path from node A to node P, we can use Dijkstra's algorithm. Here's the sequence of nodes in response:
 A -&gt; B -&gt; C -&gt; D -&gt; H -&gt; L -&gt; P
-The total cost is 3 + 3 + 4 + 1 + 0 + 0 + 0 = 11.</t>
+The total cost of this path is 2 + 5 + 1 + 3 + 0 + 0 + 0 = 14.</t>
+  </si>
+  <si>
+    <t>To find the least cost path from node A to node P, we can use Dijkstra's algorithm. Here's the sequence of nodes in response:
+A -&gt; B -&gt; F -&gt; J -&gt; K -&gt; L -&gt; P
+The cost of this path is 5.</t>
+  </si>
+  <si>
+    <t>The least cost path from node A to node O is A -&gt; B -&gt; F -&gt; J -&gt; K -&gt; L -&gt; O. The cost of this path is 4.</t>
+  </si>
+  <si>
+    <t>The least cost path from node A to node O is A -&gt; B -&gt; F -&gt; J -&gt; K -&gt; L -&gt; M -&gt; N -&gt; O. The cost of this path is 2 + 1 + 4 + 2 + 1 + 1 + 0 + 2 = 15.</t>
   </si>
   <si>
     <t>To find the least cost path from node A to node P, we can use Dijkstra's algorithm. Here's the sequence of nodes in response:
 A -&gt; B -&gt; C -&gt; D -&gt; H -&gt; L -&gt; P
-The total cost of this path is 3 + 1 + 2 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 = 7.</t>
-  </si>
-  <si>
-    <t>The least cost path from node A to node O is A -&gt; B -&gt; C -&gt; F -&gt; J -&gt; K -&gt; L -&gt; M -&gt; N -&gt; O. The cost of this path is 2 + 2 + 1 + 1 + 1 + 5 + 5 + 1 + 1 = 22.</t>
+The cost of this path is 5.</t>
   </si>
   <si>
     <t>To find the least cost path from node A to node P, we can use Dijkstra's algorithm. Here's the sequence of nodes in response:
@@ -809,26 +819,17 @@
   <si>
     <t>To find the least cost path from node A to node P, we can use Dijkstra's algorithm. Here's the sequence of nodes in response:
 A -&gt; B -&gt; C -&gt; D -&gt; H -&gt; L -&gt; P
-The total cost of this path is 2 + 5 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 = 12.</t>
-  </si>
-  <si>
-    <t>The least cost path from node A to node O is A -&gt; B -&gt; F -&gt; J -&gt; K -&gt; L -&gt; O. The cost of this path is 4.</t>
+The total cost of this path is 2 + 1 + 5 + 1 + 0 + 0 + 0 = 10.</t>
   </si>
   <si>
     <t>To find the least cost path from node A to node P, we can use Dijkstra's algorithm. Here's the sequence of nodes in response:
 A -&gt; B -&gt; C -&gt; D -&gt; H -&gt; L -&gt; P
-The total cost is 3 + 5 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 = 13.</t>
-  </si>
-  <si>
-    <t>The least cost path from node A to node N is A -&gt; C -&gt; F -&gt; J -&gt; K -&gt; L -&gt; M -&gt; N. The cost of this path is 3 + 5 + 4 + 0 + 0 + 3 + 0 = 15.</t>
+The total cost is 2 + 2 + 3 + 1 + 0 + 0 + 0 = 8.</t>
   </si>
   <si>
     <t>To find the least cost path from node A to node P, we can use Dijkstra's algorithm. Here's the sequence of nodes in response:
 A -&gt; B -&gt; C -&gt; D -&gt; H -&gt; L -&gt; P
-The total cost is 5 + 2 + 4 + 1 + 0 + 0 + 0 = 12.</t>
-  </si>
-  <si>
-    <t>Correct</t>
+The total cost of this path is 4 + 5 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 = 14.</t>
   </si>
   <si>
     <t>Wrong</t>
@@ -1217,7 +1218,7 @@
         <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D2" t="s">
         <v>31</v>
@@ -1231,10 +1232,10 @@
         <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1245,10 +1246,10 @@
         <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1259,10 +1260,10 @@
         <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1270,10 +1271,10 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>31</v>
@@ -1284,13 +1285,13 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1298,13 +1299,13 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C8" t="s">
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1312,13 +1313,13 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
       </c>
       <c r="D9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1326,13 +1327,13 @@
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C10" t="s">
         <v>29</v>
       </c>
       <c r="D10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1340,13 +1341,13 @@
         <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C11" t="s">
         <v>30</v>
       </c>
       <c r="D11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
